--- a/src/main/resources/db/tables.xlsx
+++ b/src/main/resources/db/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Table</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>char</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -147,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,6 +617,15 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
